--- a/Data/AuthorsAndBooks.xlsx
+++ b/Data/AuthorsAndBooks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanapaco/Documents/ProgProjects/NovaIMS/2ndSemester/TextMining/FinalProject/TextMiningFinalProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4038BA-198A-FD47-BB2A-9B1CC9005027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B7A26-0C84-5344-A5D2-C708D0A74B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{BF427A42-04FA-0549-8765-8FDEA206F997}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797C6BE0-AF90-0D48-9CBC-61C4BA31DB30}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
